--- a/data/trans_dic/P53_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P53_R-Edad-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N17"/>
+  <dimension ref="A1:Q18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -529,12 +530,15 @@
     <col width="14" customWidth="1" min="12" max="12"/>
     <col width="14" customWidth="1" min="13" max="13"/>
     <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población con &lt;=  900 euros de ingresos mensuales netos en el mes anterior</t>
+          <t>Población con &lt;=  900 euros de ingresos mensuales netos en el mes anterior (tasa de respuesta: 90,32%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -546,22 +550,25 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
       <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="inlineStr">
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="L1" s="3" t="n"/>
-      <c r="M1" s="3" t="n"/>
       <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -588,42 +595,57 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>M1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M1</t>
         </is>
       </c>
-      <c r="L2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="M2" s="3" t="inlineStr">
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="N2" s="3" t="inlineStr">
+      <c r="P2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -642,6 +664,9 @@
       <c r="L3" s="2" t="n"/>
       <c r="M3" s="2" t="n"/>
       <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -656,62 +681,77 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>15,08%</t>
+          <t>14,45%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>17,23%</t>
+          <t>20,21%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>15,97%</t>
+          <t>16,55%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>14,67%</t>
+          <t>19,11%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>26,27%</t>
+          <t>11,86%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>22,59%</t>
+          <t>27,27%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>29,67%</t>
+          <t>21,28%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>30,12%</t>
+          <t>25,6%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>21,24%</t>
+          <t>25,86%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>20,11%</t>
+          <t>8,07%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>22,68%</t>
+          <t>21,59%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>21,75%</t>
+          <t>20,8%</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>21,09%</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>22,26%</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>9,91%</t>
         </is>
       </c>
     </row>
@@ -724,62 +764,77 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>5,38; 28,87</t>
+          <t>4,17; 35,36</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>7,27; 30,93</t>
+          <t>4,78; 43,59</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>7,48; 31,09</t>
+          <t>4,51; 33,83</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>6,5; 27,81</t>
+          <t>5,89; 38,9</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>15,86; 38,74</t>
+          <t>2,9; 29,61</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>12,45; 34,67</t>
+          <t>12,24; 45,2</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>19,27; 41,63</t>
+          <t>8,94; 38,87</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>19,85; 41,39</t>
+          <t>13,25; 43,3</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>13,72; 29,84</t>
+          <t>13,2; 44,06</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>12,99; 28,43</t>
+          <t>2,23; 22,21</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>15,43; 32,25</t>
+          <t>12,44; 35,06</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>14,9; 31,36</t>
+          <t>10,71; 33,1</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>11,94; 32,36</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>12,51; 34,61</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>4,06; 18,62</t>
         </is>
       </c>
     </row>
@@ -796,62 +851,77 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>19,46%</t>
+          <t>26,92%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>21,04%</t>
+          <t>28,59%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>25,82%</t>
+          <t>36,3%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>28,82%</t>
+          <t>40,1%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>15,42%</t>
+          <t>22,03%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>14,55%</t>
+          <t>9,37%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>20,73%</t>
+          <t>13,17%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>23,58%</t>
+          <t>16,0%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>17,35%</t>
+          <t>18,89%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>17,6%</t>
+          <t>14,08%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>23,3%</t>
+          <t>18,16%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>26,31%</t>
+          <t>20,96%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>26,93%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>30,54%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>18,72%</t>
         </is>
       </c>
     </row>
@@ -864,62 +934,77 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>8,53; 43,45</t>
+          <t>10,23; 60,68</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>9,63; 43,69</t>
+          <t>11,21; 58,12</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>12,21; 45,81</t>
+          <t>11,02; 66,51</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>10,68; 55,94</t>
+          <t>11,39; 71,55</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>8,01; 26,51</t>
+          <t>4,93; 54,13</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>7,58; 26,35</t>
+          <t>3,39; 20,8</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>11,71; 31,47</t>
+          <t>5,68; 24,06</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>15,19; 34,23</t>
+          <t>7,44; 28,63</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>10,1; 30,54</t>
+          <t>9,57; 31,67</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>10,67; 30,88</t>
+          <t>6,99; 25,46</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>15,34; 34,77</t>
+          <t>8,78; 35,53</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>16,58; 40,66</t>
+          <t>10,9; 40,22</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>13,91; 47,61</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>15,79; 52,66</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>7,71; 38,42</t>
         </is>
       </c>
     </row>
@@ -936,62 +1021,77 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>19,44%</t>
+          <t>16,06%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>33,26%</t>
+          <t>18,13%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>22,77%</t>
+          <t>13,13%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>29,12%</t>
+          <t>11,26%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>11,57%</t>
+          <t>8,84%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>13,24%</t>
+          <t>6,53%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>13,75%</t>
+          <t>8,32%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>13,07%</t>
+          <t>8,59%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>15,22%</t>
+          <t>8,03%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>22,79%</t>
+          <t>3,38%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>18,01%</t>
+          <t>10,33%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>20,92%</t>
+          <t>12,09%</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>10,39%</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>9,36%</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>5,73%</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1104,77 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>11,28; 32,88</t>
+          <t>7,2; 28,31</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>20,61; 51,12</t>
+          <t>8,53; 30,65</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>13,27; 40,43</t>
+          <t>4,53; 25,4</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>17,03; 49,0</t>
+          <t>4,23; 22,79</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>7,26; 18,1</t>
+          <t>2,33; 20,3</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>8,52; 20,42</t>
+          <t>2,81; 12,74</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>8,55; 20,63</t>
+          <t>3,71; 14,78</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>7,9; 19,96</t>
+          <t>4,0; 15,31</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>9,97; 21,91</t>
+          <t>3,24; 14,64</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>15,83; 34,67</t>
+          <t>0,84; 10,14</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>12,79; 26,93</t>
+          <t>6,22; 16,72</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>13,72; 32,8</t>
+          <t>7,95; 18,89</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>5,86; 15,97</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>5,01; 15,3</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>2,73; 12,39</t>
         </is>
       </c>
     </row>
@@ -1076,62 +1191,77 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>10,84%</t>
+          <t>5,61%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>10,68%</t>
+          <t>5,29%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>10,58%</t>
+          <t>3,99%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>13,82%</t>
+          <t>5,28%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>22,96%</t>
+          <t>2,84%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>27,22%</t>
+          <t>19,96%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>23,66%</t>
+          <t>24,41%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>25,01%</t>
+          <t>16,97%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>17,47%</t>
+          <t>17,85%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>19,76%</t>
+          <t>16,43%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>17,69%</t>
+          <t>13,3%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>19,7%</t>
+          <t>15,48%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>10,91%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>11,79%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>9,87%</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1274,77 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>5,96; 17,51</t>
+          <t>1,43; 13,74</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>5,74; 16,65</t>
+          <t>1,3; 12,38</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>6,16; 18,46</t>
+          <t>1,19; 11,9</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>8,46; 21,53</t>
+          <t>1,42; 12,77</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>17,2; 30,78</t>
+          <t>0,0; 10,3</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>21,02; 35,47</t>
+          <t>12,69; 29,6</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>17,32; 31,25</t>
+          <t>16,21; 34,72</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>18,48; 32,58</t>
+          <t>9,99; 26,67</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>13,23; 22,51</t>
+          <t>10,67; 27,06</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>15,49; 24,89</t>
+          <t>9,61; 25,41</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>13,24; 22,65</t>
+          <t>8,87; 19,16</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>15,4; 25,4</t>
+          <t>10,84; 21,84</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>6,92; 16,59</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>7,78; 17,33</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>5,85; 14,83</t>
         </is>
       </c>
     </row>
@@ -1216,62 +1361,77 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>25,07%</t>
+          <t>25,45%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>26,33%</t>
+          <t>26,53%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>27,73%</t>
+          <t>29,38%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
+          <t>29,09%</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>18,62%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>25,73%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>25,35%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>27,34%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>29,81%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>28,23%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
           <t>25,57%</t>
         </is>
       </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>22,85%</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>24,57%</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>28,25%</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>29,96%</t>
-        </is>
-      </c>
-      <c r="K12" s="2" t="inlineStr">
-        <is>
-          <t>24,04%</t>
-        </is>
-      </c>
-      <c r="L12" s="2" t="inlineStr">
-        <is>
-          <t>25,52%</t>
-        </is>
-      </c>
-      <c r="M12" s="2" t="inlineStr">
-        <is>
-          <t>27,97%</t>
-        </is>
-      </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>27,6%</t>
+          <t>26,04%</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>28,55%</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>29,39%</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>23,1%</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1444,77 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>17,24; 35,19</t>
+          <t>14,68; 40,96</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>17,63; 39,5</t>
+          <t>15,23; 43,93</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>19,24; 38,95</t>
+          <t>18,09; 49,2</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>17,12; 36,55</t>
+          <t>18,03; 43,82</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>15,65; 32,15</t>
+          <t>10,53; 31,16</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>16,53; 34,12</t>
+          <t>16,12; 40,44</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>20,5; 37,88</t>
+          <t>14,6; 38,4</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>21,79; 40,59</t>
+          <t>16,69; 41,29</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>17,76; 30,49</t>
+          <t>18,47; 44,45</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>18,93; 33,43</t>
+          <t>17,16; 44,68</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>21,83; 35,95</t>
+          <t>17,44; 35,07</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>21,43; 35,54</t>
+          <t>18,55; 37,7</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>19,99; 39,59</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>20,85; 39,77</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>14,93; 33,07</t>
         </is>
       </c>
     </row>
@@ -1356,62 +1531,77 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>18,06%</t>
+          <t>9,83%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>18,05%</t>
+          <t>10,24%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>16,34%</t>
+          <t>6,98%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>17,99%</t>
+          <t>7,75%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>44,57%</t>
+          <t>14,38%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>42,97%</t>
+          <t>45,2%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>46,81%</t>
+          <t>44,96%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>52,18%</t>
+          <t>46,89%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>31,38%</t>
+          <t>50,81%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>30,57%</t>
+          <t>37,68%</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>31,73%</t>
+          <t>27,42%</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>35,03%</t>
+          <t>28,04%</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>27,4%</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>29,39%</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>27,93%</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1614,77 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>10,55; 28,75</t>
+          <t>2,42; 23,63</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>10,43; 28,37</t>
+          <t>2,58; 24,56</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>8,76; 25,98</t>
+          <t>2,15; 18,63</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>9,58; 28,29</t>
+          <t>2,1; 20,31</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>32,78; 57,49</t>
+          <t>5,37; 29,83</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>31,53; 54,78</t>
+          <t>30,37; 62,72</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>34,56; 59,7</t>
+          <t>29,75; 62,11</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>39,81; 64,48</t>
+          <t>28,53; 64,5</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>23,63; 40,63</t>
+          <t>34,66; 68,52</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>23,0; 38,72</t>
+          <t>20,09; 65,51</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>23,63; 40,11</t>
+          <t>18,21; 37,82</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>26,81; 43,91</t>
+          <t>18,78; 38,94</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>17,9; 39,19</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>20,1; 41,97</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>16,81; 47,56</t>
         </is>
       </c>
     </row>
@@ -1496,62 +1701,77 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>18,06%</t>
+          <t>16,64%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>21,87%</t>
+          <t>18,11%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>20,01%</t>
+          <t>18,2%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>22,06%</t>
+          <t>19,35%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>22,59%</t>
+          <t>13,26%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>23,02%</t>
+          <t>18,96%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>25,18%</t>
+          <t>20,41%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>26,97%</t>
+          <t>20,37%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>20,42%</t>
+          <t>21,82%</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>22,47%</t>
+          <t>17,22%</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>22,64%</t>
+          <t>17,85%</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>24,48%</t>
+          <t>19,33%</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>19,31%</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>20,58%</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>15,29%</t>
         </is>
       </c>
     </row>
@@ -1564,62 +1784,84 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>14,29; 23,45</t>
+          <t>12,06; 24,68</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>16,74; 28,04</t>
+          <t>13,06; 26,36</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>15,6; 25,39</t>
+          <t>12,59; 27,81</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>17,13; 29,54</t>
+          <t>12,4; 29,23</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>19,26; 26,41</t>
+          <t>8,93; 23,05</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>19,78; 27,13</t>
+          <t>15,02; 23,48</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>21,58; 28,84</t>
+          <t>16,48; 25,01</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>23,17; 31,09</t>
+          <t>16,7; 25,16</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>17,66; 23,48</t>
+          <t>17,6; 26,87</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>19,68; 26,15</t>
+          <t>12,93; 25,08</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>19,7; 25,94</t>
+          <t>14,56; 22,33</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>21,14; 28,52</t>
+          <t>16,19; 24,41</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>15,83; 24,94</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>16,74; 26,77</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>11,67; 20,63</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
@@ -1628,15 +1870,1980 @@
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="M1:Q1"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:Q25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población con &lt;=  900 euros de ingresos mensuales netos en el mes anterior (tasa de respuesta: 90,32%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>16-24</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>9609</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>15912</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>15223</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>21127</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>13627</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>22837</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>20711</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>23739</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>25046</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>9839</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>32446</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>36623</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>38963</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>46173</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>23467</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>2771; 23517</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>3764; 34311</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>4150; 31127</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>6514; 43017</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>3329; 34037</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>10248; 37853</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>8698; 37835</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>12285; 40152</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>12782; 42675</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>2714; 27074</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>18698; 52681</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>18862; 58274</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>22064; 59773</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>25940; 71784</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>9609; 44104</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>35411</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>46493</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>50849</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>60567</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>48164</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>12274</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>20940</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>19187</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>23409</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>22048</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>47685</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>67433</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>70036</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>83976</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>70212</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>13455; 79824</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>18228; 94516</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>15436; 93176</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>17208; 108063</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>10780; 118309</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>4441; 27244</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>9034; 38266</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>8922; 34342</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>11857; 39246</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>10935; 39862</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>23065; 93296</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>35072; 129369</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>36173; 123803</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>43425; 144788</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>28933; 144120</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>22439</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>29384</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>17647</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>15493</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>15431</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>13802</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>21559</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>17618</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>15777</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>7819</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>36241</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>50943</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>35265</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>31270</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>23250</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>10054; 39556</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>13825; 49674</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>6085; 34133</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>5817; 31373</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>4066; 35411</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>5934; 26913</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>9628; 38301</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>8212; 31421</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>6374; 28775</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>1945; 23429</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>21832; 58686</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>33495; 79560</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>19908; 54238</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>16750; 51152</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>11055; 50254</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>23.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>23.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>27.0</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>8829</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>9631</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>6127</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>8043</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>5226</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>36288</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>50674</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>29669</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>29202</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>32335</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>45117</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>60305</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>35796</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>37245</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>37562</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>2257; 21624</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>2369; 22540</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>1823; 18253</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>2169; 19452</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>0; 18943</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>23076; 53816</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>33642; 72074</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>17464; 46626</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>17450; 44260</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>18906; 50012</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>30078; 64972</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>42225; 85067</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>22700; 54465</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>24587; 54747</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>22275; 56449</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>26.0</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>26.0</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>29.0</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>29.0</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>22.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>35351</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>41757</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>38266</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>35833</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>27493</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>25059</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>28291</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>24518</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>25941</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>36295</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>60410</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>70048</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>62785</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>61774</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>63788</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>20390; 56886</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>23976; 69149</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>23562; 64080</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>22211; 53978</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>15537; 45998</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>15699; 39381</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>16292; 42860</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>14967; 37028</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>16077; 38679</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>22055; 57434</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>41200; 82851</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>49901; 101421</t>
+        </is>
+      </c>
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>43971; 87056</t>
+        </is>
+      </c>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>43826; 83600</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>41227; 91324</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65 Y MAS</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="O19" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="P19" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="Q19" s="2" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>8868</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>11189</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>6097</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>6982</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>17944</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>40368</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>51699</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>42887</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>46279</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>65343</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>49237</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>62887</t>
+        </is>
+      </c>
+      <c r="O20" s="2" t="inlineStr">
+        <is>
+          <t>48984</t>
+        </is>
+      </c>
+      <c r="P20" s="2" t="inlineStr">
+        <is>
+          <t>53261</t>
+        </is>
+      </c>
+      <c r="Q20" s="2" t="inlineStr">
+        <is>
+          <t>83288</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>2182; 21320</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>2819; 26844</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>1879; 16274</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>1889; 18303</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>6696; 37214</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>27123; 56024</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>34209; 71428</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>26091; 58993</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>31570; 62405</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>34849; 113617</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>32701; 67913</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>42123; 87338</t>
+        </is>
+      </c>
+      <c r="O21" s="2" t="inlineStr">
+        <is>
+          <t>31999; 70068</t>
+        </is>
+      </c>
+      <c r="P21" s="2" t="inlineStr">
+        <is>
+          <t>36424; 76046</t>
+        </is>
+      </c>
+      <c r="Q21" s="2" t="inlineStr">
+        <is>
+          <t>50141; 141834</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>40.0</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>43.0</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>38.0</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>38.0</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>30.0</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>66.0</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>73.0</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>71.0</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>72.0</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>50.0</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>106.0</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>116.0</t>
+        </is>
+      </c>
+      <c r="O22" s="2" t="inlineStr">
+        <is>
+          <t>109.0</t>
+        </is>
+      </c>
+      <c r="P22" s="2" t="inlineStr">
+        <is>
+          <t>110.0</t>
+        </is>
+      </c>
+      <c r="Q22" s="2" t="inlineStr">
+        <is>
+          <t>80.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>120506</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>154365</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>134210</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>148045</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>127886</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>150629</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>193874</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>157618</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>165655</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>173680</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>271135</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>348239</t>
+        </is>
+      </c>
+      <c r="O23" s="2" t="inlineStr">
+        <is>
+          <t>291828</t>
+        </is>
+      </c>
+      <c r="P23" s="2" t="inlineStr">
+        <is>
+          <t>313700</t>
+        </is>
+      </c>
+      <c r="Q23" s="2" t="inlineStr">
+        <is>
+          <t>301566</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>87312; 178721</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>111301; 224615</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>92828; 205044</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>94865; 223566</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>86134; 222239</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>119305; 186527</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>156545; 237506</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>129217; 194684</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>133602; 203940</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>130344; 252941</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>221138; 339145</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>291689; 439825</t>
+        </is>
+      </c>
+      <c r="O24" s="2" t="inlineStr">
+        <is>
+          <t>239219; 376972</t>
+        </is>
+      </c>
+      <c r="P24" s="2" t="inlineStr">
+        <is>
+          <t>255127; 408017</t>
+        </is>
+      </c>
+      <c r="Q24" s="2" t="inlineStr">
+        <is>
+          <t>230205; 406958</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="M1:Q1"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>